--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_07.08.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.686</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.04599999999999937</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>278.94</v>
+        <v>19.755</v>
       </c>
       <c r="H3" t="n">
-        <v>278.75</v>
+        <v>19.7</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1899999999999977</v>
+        <v>0.05499999999999972</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.06999999999999999</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>279.76</v>
+        <v>19.787</v>
       </c>
       <c r="H4" t="n">
-        <v>278.42</v>
+        <v>19.735</v>
       </c>
       <c r="I4" t="n">
-        <v>1.339999999999975</v>
+        <v>0.0519999999999996</v>
       </c>
       <c r="J4" t="n">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -613,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>279.8</v>
+        <v>19.889</v>
       </c>
       <c r="H5" t="n">
-        <v>280.3</v>
+        <v>19.849</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -631,16 +639,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>281.54</v>
+        <v>59.67</v>
       </c>
       <c r="H6" t="n">
-        <v>281.39</v>
+        <v>59.83</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1500000000000341</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -678,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>128.54</v>
+        <v>60.19</v>
       </c>
       <c r="H7" t="n">
-        <v>127.43</v>
+        <v>59.92</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.109999999999985</v>
+        <v>0.269999999999996</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.86</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>128.37</v>
+        <v>60.38</v>
       </c>
       <c r="H8" t="n">
-        <v>127.91</v>
+        <v>60.8</v>
       </c>
       <c r="I8" t="n">
-        <v>0.460000000000008</v>
+        <v>-0.4199999999999946</v>
       </c>
       <c r="J8" t="n">
-        <v>0.36</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -743,16 +753,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -761,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>128.6</v>
+        <v>1361.2</v>
       </c>
       <c r="H9" t="n">
-        <v>128.61</v>
+        <v>1362</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01000000000001933</v>
+        <v>0.7999999999999545</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
@@ -779,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -790,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -799,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6377.5</v>
+        <v>1373.8</v>
       </c>
       <c r="H10" t="n">
-        <v>6399.5</v>
+        <v>1367.4</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>6.399999999999864</v>
       </c>
       <c r="J10" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11">
@@ -817,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -837,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6435</v>
+        <v>1373.6</v>
       </c>
       <c r="H11" t="n">
-        <v>6397.5</v>
+        <v>1372</v>
       </c>
       <c r="I11" t="n">
-        <v>37.5</v>
+        <v>1.599999999999909</v>
       </c>
       <c r="J11" t="n">
-        <v>0.58</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
@@ -855,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -866,7 +878,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -875,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6425</v>
+        <v>11.853</v>
       </c>
       <c r="H12" t="n">
-        <v>6443.5</v>
+        <v>11.86</v>
       </c>
       <c r="I12" t="n">
-        <v>-18.5</v>
+        <v>0.006999999999999673</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.29</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
@@ -893,13 +905,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>short</t>
@@ -911,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6485</v>
+        <v>11.867</v>
       </c>
       <c r="H13" t="n">
-        <v>6480.5</v>
+        <v>11.908</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>-0.04099999999999859</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06999999999999999</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="14">
@@ -929,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -949,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>493</v>
+        <v>11.898</v>
       </c>
       <c r="H14" t="n">
-        <v>493.15</v>
+        <v>11.9</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1499999999999773</v>
+        <v>0.002000000000000668</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
@@ -967,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -978,7 +992,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -987,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>494.4</v>
+        <v>0.095</v>
       </c>
       <c r="H15" t="n">
-        <v>495.45</v>
+        <v>0.09551999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.050000000000011</v>
+        <v>0.0005199999999999927</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.21</v>
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1005,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1025,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>499.4</v>
+        <v>0.09578</v>
       </c>
       <c r="H16" t="n">
-        <v>501.3</v>
+        <v>0.09678</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.900000000000034</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.38</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="17">
@@ -1043,16 +1057,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1061,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>504.75</v>
+        <v>128.54</v>
       </c>
       <c r="H17" t="n">
-        <v>503.8</v>
+        <v>127.43</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9499999999999886</v>
+        <v>-1.109999999999985</v>
       </c>
       <c r="J17" t="n">
-        <v>0.19</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="18">
@@ -1079,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1090,7 +1106,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1099,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>224.94</v>
+        <v>128.37</v>
       </c>
       <c r="H18" t="n">
-        <v>224.1</v>
+        <v>127.91</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8400000000000034</v>
+        <v>0.460000000000008</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1128,7 +1144,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1137,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>224.68</v>
+        <v>124.44</v>
       </c>
       <c r="H19" t="n">
-        <v>225.01</v>
+        <v>123.48</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3299999999999841</v>
+        <v>-0.9599999999999937</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.15</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="20">
@@ -1155,13 +1171,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>short</t>
@@ -1173,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>226.5</v>
+        <v>123.64</v>
       </c>
       <c r="H20" t="n">
-        <v>225.97</v>
+        <v>123.04</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5300000000000011</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="J20" t="n">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="21">
@@ -1191,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1211,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1004.4</v>
+        <v>123.42</v>
       </c>
       <c r="H21" t="n">
-        <v>1002.8</v>
+        <v>123</v>
       </c>
       <c r="I21" t="n">
-        <v>1.600000000000023</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="J21" t="n">
-        <v>0.16</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1240,7 +1258,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1249,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1007</v>
+        <v>6377.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1006.8</v>
+        <v>6399.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2000000000000455</v>
+        <v>22</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="23">
@@ -1267,13 +1285,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>short</t>
@@ -1285,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1011.8</v>
+        <v>6435</v>
       </c>
       <c r="H23" t="n">
-        <v>1011.2</v>
+        <v>6397.5</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5999999999999091</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="24">
@@ -1303,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1314,7 +1334,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1323,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11.853</v>
+        <v>6425</v>
       </c>
       <c r="H24" t="n">
-        <v>11.86</v>
+        <v>6443.5</v>
       </c>
       <c r="I24" t="n">
-        <v>0.006999999999999673</v>
+        <v>-18.5</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="25">
@@ -1341,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1352,7 +1372,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1361,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11.867</v>
+        <v>49.195</v>
       </c>
       <c r="H25" t="n">
-        <v>11.908</v>
+        <v>48.605</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.04099999999999859</v>
+        <v>-0.5900000000000034</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.35</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="26">
@@ -1379,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1390,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1399,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>11.898</v>
+        <v>48.675</v>
       </c>
       <c r="H26" t="n">
-        <v>11.9</v>
+        <v>48.61</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002000000000000668</v>
+        <v>0.06499999999999773</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="27">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1428,7 +1448,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1437,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>124.44</v>
+        <v>48.88</v>
       </c>
       <c r="H27" t="n">
-        <v>123.48</v>
+        <v>48.63</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.9599999999999937</v>
+        <v>0.25</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.77</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1475,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>123.64</v>
+        <v>48.99</v>
       </c>
       <c r="H28" t="n">
-        <v>123.04</v>
+        <v>48.8</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5999999999999943</v>
+        <v>0.1900000000000048</v>
       </c>
       <c r="J28" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="29">
@@ -1493,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1504,7 +1524,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1513,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>123.42</v>
+        <v>224.94</v>
       </c>
       <c r="H29" t="n">
-        <v>123</v>
+        <v>224.1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4200000000000017</v>
+        <v>-0.8400000000000034</v>
       </c>
       <c r="J29" t="n">
-        <v>0.34</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="30">
@@ -1531,13 +1551,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>short</t>
@@ -1549,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>123.88</v>
+        <v>224.68</v>
       </c>
       <c r="H30" t="n">
-        <v>124.14</v>
+        <v>225.01</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2600000000000051</v>
+        <v>-0.3299999999999841</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="31">
@@ -1567,7 +1589,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1587,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>159.7</v>
+        <v>146.99</v>
       </c>
       <c r="H31" t="n">
-        <v>159.2</v>
+        <v>146.55</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.5</v>
+        <v>-0.4399999999999977</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.31</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="32">
@@ -1605,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1625,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>160.58</v>
+        <v>147.35</v>
       </c>
       <c r="H32" t="n">
-        <v>160.1</v>
+        <v>146.6</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4800000000000182</v>
+        <v>0.75</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="33">
@@ -1643,7 +1665,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1663,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>159.5</v>
+        <v>2893.05</v>
       </c>
       <c r="H33" t="n">
-        <v>160.06</v>
+        <v>2884.3</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5600000000000023</v>
+        <v>-8.75</v>
       </c>
       <c r="J33" t="n">
-        <v>0.35</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="34">
@@ -1681,13 +1703,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>short</t>
@@ -1699,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>160.76</v>
+        <v>2901.25</v>
       </c>
       <c r="H34" t="n">
-        <v>160.34</v>
+        <v>2884</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4199999999999875</v>
+        <v>17.25</v>
       </c>
       <c r="J34" t="n">
-        <v>0.26</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="35">
@@ -1717,7 +1741,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1728,7 +1752,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1737,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>49.195</v>
+        <v>2901.8</v>
       </c>
       <c r="H35" t="n">
-        <v>48.605</v>
+        <v>2906</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.5900000000000034</v>
+        <v>-4.199999999999818</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.2</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="36">
@@ -1755,7 +1779,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1766,7 +1790,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1775,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>48.675</v>
+        <v>159.7</v>
       </c>
       <c r="H36" t="n">
-        <v>48.61</v>
+        <v>159.2</v>
       </c>
       <c r="I36" t="n">
-        <v>0.06499999999999773</v>
+        <v>-0.5</v>
       </c>
       <c r="J36" t="n">
-        <v>0.13</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="37">
@@ -1793,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1813,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>48.88</v>
+        <v>160.58</v>
       </c>
       <c r="H37" t="n">
-        <v>48.63</v>
+        <v>160.1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.25</v>
+        <v>0.4800000000000182</v>
       </c>
       <c r="J37" t="n">
-        <v>0.51</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
@@ -1831,7 +1855,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1842,7 +1866,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1851,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>48.99</v>
+        <v>159.5</v>
       </c>
       <c r="H38" t="n">
-        <v>48.8</v>
+        <v>160.06</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1900000000000048</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="J38" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="39">
@@ -1869,13 +1893,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>short</t>
@@ -1887,16 +1913,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>49.02</v>
+        <v>1004.4</v>
       </c>
       <c r="H39" t="n">
-        <v>49.19</v>
+        <v>1002.8</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.1699999999999946</v>
+        <v>1.600000000000023</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.35</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="40">
@@ -1905,7 +1931,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1916,7 +1942,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1925,16 +1951,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1361.2</v>
+        <v>1007</v>
       </c>
       <c r="H40" t="n">
-        <v>1362</v>
+        <v>1006.8</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7999999999999545</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="J40" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="41">
@@ -1943,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1954,7 +1980,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1963,16 +1989,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1373.8</v>
+        <v>493</v>
       </c>
       <c r="H41" t="n">
-        <v>1367.4</v>
+        <v>493.15</v>
       </c>
       <c r="I41" t="n">
-        <v>6.399999999999864</v>
+        <v>0.1499999999999773</v>
       </c>
       <c r="J41" t="n">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42">
@@ -1981,7 +2007,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -2001,16 +2027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1373.6</v>
+        <v>494.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1372</v>
+        <v>495.45</v>
       </c>
       <c r="I42" t="n">
-        <v>1.599999999999909</v>
+        <v>-1.050000000000011</v>
       </c>
       <c r="J42" t="n">
-        <v>0.12</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="43">
@@ -2019,13 +2045,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>short</t>
@@ -2037,16 +2065,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1383.2</v>
+        <v>499.4</v>
       </c>
       <c r="H43" t="n">
-        <v>1382.4</v>
+        <v>501.3</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7999999999999545</v>
+        <v>-1.900000000000034</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="44">
@@ -2055,7 +2083,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -2075,16 +2103,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>59.67</v>
+        <v>278.94</v>
       </c>
       <c r="H44" t="n">
-        <v>59.83</v>
+        <v>278.75</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1599999999999966</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="J44" t="n">
-        <v>0.27</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -2093,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2113,16 +2141,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>60.19</v>
+        <v>279.76</v>
       </c>
       <c r="H45" t="n">
-        <v>59.92</v>
+        <v>278.42</v>
       </c>
       <c r="I45" t="n">
-        <v>0.269999999999996</v>
+        <v>1.339999999999975</v>
       </c>
       <c r="J45" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="46">
@@ -2131,7 +2159,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2151,16 +2179,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>60.38</v>
+        <v>279.8</v>
       </c>
       <c r="H46" t="n">
-        <v>60.8</v>
+        <v>280.3</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.4199999999999946</v>
+        <v>-0.5</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.7000000000000001</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="47">
@@ -2169,13 +2197,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>long</t>
@@ -2187,16 +2217,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>60.65</v>
+        <v>55.38</v>
       </c>
       <c r="H47" t="n">
-        <v>60.67</v>
+        <v>55.59</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02000000000000313</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="48">
@@ -2205,7 +2235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -2225,16 +2255,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>95.76000000000001</v>
+        <v>667.75</v>
       </c>
       <c r="H48" t="n">
-        <v>95.69</v>
+        <v>666.6</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.07000000000000739</v>
+        <v>-1.149999999999977</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.06999999999999999</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="49">
@@ -2243,7 +2273,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2263,16 +2293,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>96.11</v>
+        <v>670.5</v>
       </c>
       <c r="H49" t="n">
-        <v>96.40000000000001</v>
+        <v>668.7</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.2900000000000063</v>
+        <v>1.799999999999955</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="50">
@@ -2281,7 +2311,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2301,16 +2331,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>97.08</v>
+        <v>671.75</v>
       </c>
       <c r="H50" t="n">
-        <v>97.73999999999999</v>
+        <v>669.15</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.6599999999999966</v>
+        <v>2.600000000000023</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.6799999999999999</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="51">
@@ -2319,7 +2349,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -2339,16 +2369,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>55.38</v>
+        <v>142.84</v>
       </c>
       <c r="H51" t="n">
-        <v>55.59</v>
+        <v>142.36</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2100000000000009</v>
+        <v>-0.4799999999999898</v>
       </c>
       <c r="J51" t="n">
-        <v>0.38</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="52">
@@ -2357,13 +2387,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>short</t>
@@ -2375,16 +2407,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>55.6</v>
+        <v>143.66</v>
       </c>
       <c r="H52" t="n">
-        <v>56.31</v>
+        <v>144.56</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.7100000000000009</v>
+        <v>-0.9000000000000057</v>
       </c>
       <c r="J52" t="n">
-        <v>-1.28</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="53">
@@ -2393,7 +2425,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2413,16 +2445,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>142.84</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>142.36</v>
+        <v>95.69</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.4799999999999898</v>
+        <v>-0.07000000000000739</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.34</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -2431,7 +2463,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2451,16 +2483,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>143.66</v>
+        <v>96.11</v>
       </c>
       <c r="H54" t="n">
-        <v>144.56</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.9000000000000057</v>
+        <v>-0.2900000000000063</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.63</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="55">
@@ -2469,7 +2501,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -2480,7 +2512,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2489,16 +2521,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>19.64</v>
+        <v>97.08</v>
       </c>
       <c r="H55" t="n">
-        <v>19.686</v>
+        <v>97.73999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04599999999999937</v>
+        <v>-0.6599999999999966</v>
       </c>
       <c r="J55" t="n">
-        <v>0.23</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -2513,9 +2545,7 @@
       <c r="C56" t="b">
         <v>1</v>
       </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>short</t>
@@ -2527,16 +2557,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>19.755</v>
+        <v>20.006</v>
       </c>
       <c r="H56" t="n">
-        <v>19.7</v>
+        <v>20.265</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05499999999999972</v>
+        <v>-0.2590000000000003</v>
       </c>
       <c r="J56" t="n">
-        <v>0.28</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="57">
@@ -2545,18 +2575,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2565,16 +2593,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>19.787</v>
+        <v>60.65</v>
       </c>
       <c r="H57" t="n">
-        <v>19.735</v>
+        <v>60.67</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0519999999999996</v>
+        <v>0.02000000000000313</v>
       </c>
       <c r="J57" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="58">
@@ -2583,15 +2611,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>short</t>
@@ -2603,16 +2629,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>19.889</v>
+        <v>1383.2</v>
       </c>
       <c r="H58" t="n">
-        <v>19.849</v>
+        <v>1382.4</v>
       </c>
       <c r="I58" t="n">
-        <v>0.03999999999999915</v>
+        <v>0.7999999999999545</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="59">
@@ -2621,7 +2647,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -2639,16 +2665,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>20.006</v>
+        <v>0.09786</v>
       </c>
       <c r="H59" t="n">
-        <v>20.265</v>
+        <v>0.09752</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.2590000000000003</v>
+        <v>0.000340000000000007</v>
       </c>
       <c r="J59" t="n">
-        <v>-1.29</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="60">
@@ -2657,18 +2683,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2677,16 +2701,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>667.75</v>
+        <v>128.6</v>
       </c>
       <c r="H60" t="n">
-        <v>666.6</v>
+        <v>128.61</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.149999999999977</v>
+        <v>-0.01000000000001933</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.17</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="61">
@@ -2695,15 +2719,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>short</t>
@@ -2715,16 +2737,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>670.5</v>
+        <v>123.88</v>
       </c>
       <c r="H61" t="n">
-        <v>668.7</v>
+        <v>124.14</v>
       </c>
       <c r="I61" t="n">
-        <v>1.799999999999955</v>
+        <v>-0.2600000000000051</v>
       </c>
       <c r="J61" t="n">
-        <v>0.27</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="62">
@@ -2733,15 +2755,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>short</t>
@@ -2753,16 +2773,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>671.75</v>
+        <v>6485</v>
       </c>
       <c r="H62" t="n">
-        <v>669.15</v>
+        <v>6480.5</v>
       </c>
       <c r="I62" t="n">
-        <v>2.600000000000023</v>
+        <v>4.5</v>
       </c>
       <c r="J62" t="n">
-        <v>0.39</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="63">
@@ -2771,7 +2791,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2789,16 +2809,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>672.6</v>
+        <v>49.02</v>
       </c>
       <c r="H63" t="n">
-        <v>674.5</v>
+        <v>49.19</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.899999999999977</v>
+        <v>-0.1699999999999946</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.28</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="64">
@@ -2807,18 +2827,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2827,16 +2845,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>146.99</v>
+        <v>226.5</v>
       </c>
       <c r="H64" t="n">
-        <v>146.55</v>
+        <v>225.97</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.4399999999999977</v>
+        <v>0.5300000000000011</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.3</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="65">
@@ -2851,9 +2869,7 @@
       <c r="C65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>short</t>
@@ -2865,16 +2881,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>147.35</v>
+        <v>148.68</v>
       </c>
       <c r="H65" t="n">
-        <v>146.6</v>
+        <v>155.8</v>
       </c>
       <c r="I65" t="n">
-        <v>0.75</v>
+        <v>-7.120000000000005</v>
       </c>
       <c r="J65" t="n">
-        <v>0.51</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="66">
@@ -2883,7 +2899,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C66" t="b">
@@ -2901,16 +2917,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>148.68</v>
+        <v>2919.55</v>
       </c>
       <c r="H66" t="n">
-        <v>155.8</v>
+        <v>2919.65</v>
       </c>
       <c r="I66" t="n">
-        <v>-7.120000000000005</v>
+        <v>-0.09999999999990905</v>
       </c>
       <c r="J66" t="n">
-        <v>-4.79</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67">
@@ -2919,18 +2935,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2939,16 +2953,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.095</v>
+        <v>160.76</v>
       </c>
       <c r="H67" t="n">
-        <v>0.09552000000000001</v>
+        <v>160.34</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0005200000000000066</v>
+        <v>0.4199999999999875</v>
       </c>
       <c r="J67" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="68">
@@ -2957,15 +2971,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>short</t>
@@ -2977,16 +2989,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.09578</v>
+        <v>1011.8</v>
       </c>
       <c r="H68" t="n">
-        <v>0.09678</v>
+        <v>1011.2</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="J68" t="n">
-        <v>-1.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="69">
@@ -2995,7 +3007,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C69" t="b">
@@ -3013,16 +3025,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.09786</v>
+        <v>504.75</v>
       </c>
       <c r="H69" t="n">
-        <v>0.09752</v>
+        <v>503.8</v>
       </c>
       <c r="I69" t="n">
-        <v>0.000340000000000007</v>
+        <v>0.9499999999999886</v>
       </c>
       <c r="J69" t="n">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="70">
@@ -3031,18 +3043,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3051,16 +3061,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2893.05</v>
+        <v>281.54</v>
       </c>
       <c r="H70" t="n">
-        <v>2884.3</v>
+        <v>281.39</v>
       </c>
       <c r="I70" t="n">
-        <v>-8.75</v>
+        <v>0.1500000000000341</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="71">
@@ -3069,15 +3079,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>short</t>
@@ -3089,16 +3097,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2901.25</v>
+        <v>55.6</v>
       </c>
       <c r="H71" t="n">
-        <v>2884</v>
+        <v>56.31</v>
       </c>
       <c r="I71" t="n">
-        <v>17.25</v>
+        <v>-0.7100000000000009</v>
       </c>
       <c r="J71" t="n">
-        <v>0.59</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="72">
@@ -3107,15 +3115,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>short</t>
@@ -3127,52 +3133,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2901.8</v>
+        <v>672.6</v>
       </c>
       <c r="H72" t="n">
-        <v>2906</v>
+        <v>674.5</v>
       </c>
       <c r="I72" t="n">
-        <v>-4.199999999999818</v>
+        <v>-1.899999999999977</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.14</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>2919.55</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2919.65</v>
-      </c>
-      <c r="I73" t="n">
-        <v>-0.09999999999990905</v>
-      </c>
-      <c r="J73" t="n">
-        <v>-0</v>
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +3156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3273,199 +3243,199 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.599999999999682</v>
+        <v>0.960000000000008</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.39999999999992</v>
+        <v>0.240000000000002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.350000000000023</v>
+        <v>9.599999999999682</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3375000000000057</v>
+        <v>2.39999999999992</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21</v>
+        <v>0.71</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8000000000000114</v>
+        <v>1.350000000000023</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2000000000000028</v>
+        <v>0.3375000000000057</v>
       </c>
       <c r="E6" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2000000000000028</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05000000000000071</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.15</v>
+        <v>0.28</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.5</v>
+        <v>-1.85000000000008</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>11.375</v>
+        <v>-0.4625000000000199</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7</v>
+        <v>-0.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.18</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.85000000000008</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4625000000000199</v>
+        <v>-0.05000000000000071</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.37</v>
+        <v>-0.15</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03000000000000114</v>
+        <v>45.5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007500000000000284</v>
+        <v>11.375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04999999999999991</v>
+        <v>0.7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.200000000000273</v>
+        <v>0.03000000000000114</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1.050000000000068</v>
+        <v>0.007500000000000284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.15</v>
+        <v>0.04999999999999991</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.960000000000008</v>
+        <v>4.200000000000273</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.240000000000002</v>
+        <v>1.050000000000068</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
@@ -3493,133 +3463,133 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.02000000000001</v>
+        <v>-6.810000000000002</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3400000000000034</v>
+        <v>-2.270000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.05</v>
+        <v>-4.58</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.35</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.810000000000002</v>
+        <v>-0.6399999999999864</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.270000000000001</v>
+        <v>-0.2133333333333288</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.58</v>
+        <v>-0.29</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.53</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.6399999999999864</v>
+        <v>-0.6599999999999966</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2133333333333288</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.29</v>
+        <v>-0.51</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6599999999999966</v>
+        <v>-0.0001400000000000012</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2199999999999989</v>
+        <v>-4.666666666666708e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.51</v>
+        <v>-0.1400000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.17</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001399999999999874</v>
+        <v>-0.03199999999999825</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.666666666666245e-05</v>
+        <v>-0.01066666666666608</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1400000000000001</v>
+        <v>-0.27</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03199999999999825</v>
+        <v>-1.02000000000001</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01066666666666608</v>
+        <v>-0.3400000000000034</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.27</v>
+        <v>-1.05</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="20">
@@ -3665,24 +3635,6 @@
       <c r="F21" t="n">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
